--- a/Testdata/TC06_Payment.xlsx
+++ b/Testdata/TC06_Payment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestCoffee496\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076EEB44-313F-4629-9484-2FF41601CBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45E2DEF-6521-4326-A45A-738288976DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7224" yWindow="900" windowWidth="15756" windowHeight="11460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="152">
   <si>
     <t>TDID</t>
   </si>
@@ -475,6 +475,12 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>mc3.jpg</t>
   </si>
 </sst>
 </file>
@@ -646,7 +652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -686,6 +692,11 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1615,21 +1626,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="3" max="4" width="10.44140625" customWidth="1"/>
     <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="7" width="10.44140625" customWidth="1"/>
-    <col min="8" max="8" width="41" customWidth="1"/>
+    <col min="6" max="8" width="10.44140625" customWidth="1"/>
+    <col min="9" max="9" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.399999999999999" customHeight="1">
+    <row r="1" spans="1:11" ht="20.399999999999999" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1651,17 +1662,20 @@
       <c r="G1" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.6">
+    <row r="2" spans="1:11" ht="15.6">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1683,17 +1697,20 @@
       <c r="G2" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="I2" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="J2" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.6">
+      <c r="K2" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.6">
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
@@ -1715,17 +1732,18 @@
       <c r="G3" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="29"/>
+      <c r="I3" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="J3" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.6">
+      <c r="K3" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.6">
       <c r="A4" s="6" t="s">
         <v>75</v>
       </c>
@@ -1747,17 +1765,18 @@
       <c r="G4" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="29"/>
+      <c r="I4" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="J4" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.6">
+      <c r="K4" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.6">
       <c r="A5" s="6" t="s">
         <v>79</v>
       </c>
@@ -1779,17 +1798,18 @@
       <c r="G5" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="29"/>
+      <c r="I5" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="J5" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.6">
+      <c r="K5" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.6">
       <c r="A6" s="6" t="s">
         <v>82</v>
       </c>
@@ -1811,17 +1831,18 @@
       <c r="G6" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="29"/>
+      <c r="I6" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="J6" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.6">
+      <c r="K6" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.6">
       <c r="A7" s="6" t="s">
         <v>85</v>
       </c>
@@ -1843,17 +1864,18 @@
       <c r="G7" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="29"/>
+      <c r="I7" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="J7" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.6">
+      <c r="K7" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.6">
       <c r="A8" s="6" t="s">
         <v>87</v>
       </c>
@@ -1875,17 +1897,18 @@
       <c r="G8" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="30"/>
+      <c r="I8" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="J8" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.6">
+      <c r="K8" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.6">
       <c r="A9" s="6" t="s">
         <v>91</v>
       </c>
@@ -1907,17 +1930,18 @@
       <c r="G9" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="29"/>
+      <c r="I9" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="J9" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.6">
+      <c r="K9" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.6">
       <c r="A10" s="6" t="s">
         <v>94</v>
       </c>
@@ -1939,17 +1963,18 @@
       <c r="G10" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="29"/>
+      <c r="I10" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="J10" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.6">
+      <c r="K10" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.6">
       <c r="A11" s="6" t="s">
         <v>96</v>
       </c>
@@ -1971,17 +1996,18 @@
       <c r="G11" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="29"/>
+      <c r="I11" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="J11" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.6">
+      <c r="K11" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.6">
       <c r="A12" s="6" t="s">
         <v>100</v>
       </c>
@@ -2003,17 +2029,18 @@
       <c r="G12" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="29"/>
+      <c r="I12" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="J12" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.6">
+      <c r="K12" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.6">
       <c r="A13" s="6" t="s">
         <v>105</v>
       </c>
@@ -2035,17 +2062,18 @@
       <c r="G13" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="29"/>
+      <c r="I13" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="J13" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.6">
+      <c r="K13" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.6">
       <c r="A14" s="6" t="s">
         <v>107</v>
       </c>
@@ -2067,17 +2095,18 @@
       <c r="G14" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="29"/>
+      <c r="I14" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="J14" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.6">
+      <c r="K14" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.6">
       <c r="A15" s="6" t="s">
         <v>109</v>
       </c>
@@ -2099,17 +2128,18 @@
       <c r="G15" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="29"/>
+      <c r="I15" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="J15" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.6">
+      <c r="K15" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.6">
       <c r="A16" s="6" t="s">
         <v>112</v>
       </c>
@@ -2131,17 +2161,18 @@
       <c r="G16" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="29"/>
+      <c r="I16" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="J16" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.6">
+      <c r="K16" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.6">
       <c r="A17" s="6" t="s">
         <v>115</v>
       </c>
@@ -2163,17 +2194,18 @@
       <c r="G17" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="29"/>
+      <c r="I17" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="J17" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.6">
+      <c r="K17" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.6">
       <c r="A18" s="6" t="s">
         <v>118</v>
       </c>
@@ -2195,17 +2227,18 @@
       <c r="G18" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="29"/>
+      <c r="I18" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="I18" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="J18" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.6">
+      <c r="K18" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.6">
       <c r="A19" s="6" t="s">
         <v>121</v>
       </c>
@@ -2227,17 +2260,18 @@
       <c r="G19" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="29"/>
+      <c r="I19" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="I19" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="J19" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.6">
+      <c r="K19" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.6">
       <c r="A20" s="6" t="s">
         <v>123</v>
       </c>
@@ -2259,17 +2293,18 @@
       <c r="G20" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="29"/>
+      <c r="I20" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="J20" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.6">
+      <c r="K20" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.6">
       <c r="A21" s="6" t="s">
         <v>125</v>
       </c>
@@ -2291,17 +2326,18 @@
       <c r="G21" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="29"/>
+      <c r="I21" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="J21" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.6">
+      <c r="K21" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.6">
       <c r="A22" s="6" t="s">
         <v>128</v>
       </c>
@@ -2323,17 +2359,18 @@
       <c r="G22" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="29"/>
+      <c r="I22" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="I22" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="J22" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.6">
+      <c r="K22" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.6">
       <c r="A23" s="6" t="s">
         <v>131</v>
       </c>
@@ -2355,17 +2392,18 @@
       <c r="G23" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="29"/>
+      <c r="I23" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="I23" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="J23" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.6">
+      <c r="K23" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.6">
       <c r="A24" s="6" t="s">
         <v>134</v>
       </c>
@@ -2387,17 +2425,18 @@
       <c r="G24" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="29"/>
+      <c r="I24" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="I24" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="J24" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.6">
+      <c r="K24" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.6">
       <c r="A25" s="6" t="s">
         <v>137</v>
       </c>
@@ -2419,17 +2458,18 @@
       <c r="G25" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="H25" s="25" t="s">
+      <c r="H25" s="29"/>
+      <c r="I25" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="I25" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="J25" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.6">
+      <c r="K25" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.6">
       <c r="A26" s="6" t="s">
         <v>141</v>
       </c>
@@ -2451,13 +2491,14 @@
       <c r="G26" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="H26" s="25" t="s">
+      <c r="H26" s="30"/>
+      <c r="I26" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="I26" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="J26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>16</v>
       </c>
     </row>
